--- a/day08/data/다나와_무선청소기_결과.xlsx
+++ b/day08/data/다나와_무선청소기_결과.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>873560</t>
+          <t>890820</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>446320</t>
+          <t>445230</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>715570</t>
+          <t>715560</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>567400</t>
+          <t>568050</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>990510</t>
+          <t>990500</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>279560</t>
+          <t>291840</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>165890</t>
+          <t>165870</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>149630</t>
+          <t>149580</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1044910</t>
+          <t>1044900</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>802390</t>
+          <t>802370</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>942250</t>
+          <t>942230</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>524880</t>
+          <t>519160</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>549170</t>
+          <t>568990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>383900</t>
+          <t>383880</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>601270</t>
+          <t>600790</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>788440</t>
+          <t>788430</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>538020</t>
+          <t>529000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>724260</t>
+          <t>724230</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>691070</t>
+          <t>691060</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>497070</t>
+          <t>496490</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>264240</t>
+          <t>264220</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>561930</t>
+          <t>561920</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>41020</t>
+          <t>40990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>498340</t>
+          <t>495560</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>178100</t>
+          <t>112890</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>935850</t>
+          <t>935820</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>871570</t>
+          <t>871120</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1258780</t>
+          <t>1258760</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>925990</t>
+          <t>925970</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>449430</t>
+          <t>449410</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>760270</t>
+          <t>760240</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>622250</t>
+          <t>630520</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>448980</t>
+          <t>448960</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>785230</t>
+          <t>633180</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>161060</t>
+          <t>152880</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1512471</t>
+          <t>1504420</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>592730</t>
+          <t>594140</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>995220</t>
+          <t>960290</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>703610</t>
+          <t>718340</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>206590</t>
+          <t>205890</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>183200</t>
+          <t>183190</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>166730</t>
+          <t>199870</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>440000</t>
+          <t>462000</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>106900</t>
+          <t>109900</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>247480</t>
+          <t>247450</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>327730</t>
+          <t>327710</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>64900</t>
+          <t>64860</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>191990</t>
+          <t>229070</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>201990</t>
+          <t>195750</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>588190</t>
+          <t>588170</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>385730</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>83170</t>
+          <t>85400</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>124210</t>
+          <t>124350</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5592,10 +5592,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 370W / 2024년형 / [구성] 먼지비움 / 충전 / UVC LED / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 먼지봉투: 2.5L / [배터리] 사용시간: 40분(최대) / 충전시간: 5시간 / 분리형(1개) / 2500mAh / [청소] LED라이트 / BLDC모터 / [부가] 디스플레이표시 / 헤파필터 / 색상: 화이트 / 무게: 2.5kg / 크기(가로x세로x깊이): 252x1253x185mm</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>185490</t>
-        </is>
+      <c r="C235" t="n">
+        <v>0</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5638,7 +5636,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>74210</t>
+          <t>74280</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5726,7 +5724,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>161790</t>
+          <t>161770</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5968,7 +5966,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>174870</t>
+          <t>174850</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6474,7 +6472,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>159260</t>
+          <t>159240</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6606,7 +6604,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>104980</t>
+          <t>104960</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6628,7 +6626,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>446000</t>
+          <t>632990</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6672,7 +6670,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>600170</t>
+          <t>600150</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6980,7 +6978,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>848170</t>
+          <t>848150</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -7024,7 +7022,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>488690</t>
+          <t>488670</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7266,7 +7264,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>367670</t>
+          <t>367650</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -7530,7 +7528,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>583200</t>
+          <t>583180</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7596,7 +7594,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>341720</t>
+          <t>341700</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7772,7 +7770,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>460190</t>
+          <t>460170</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7794,7 +7792,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>676100</t>
+          <t>675370</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7882,7 +7880,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>128000</t>
+          <t>127990</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7926,7 +7924,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>392450</t>
+          <t>392440</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7992,7 +7990,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>529990</t>
+          <t>529920</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -8256,7 +8254,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>397700</t>
+          <t>397690</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -8564,7 +8562,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>202170</t>
+          <t>202150</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -9026,7 +9024,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>720240</t>
+          <t>720220</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -9378,7 +9376,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>251610</t>
+          <t>251580</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -9576,7 +9574,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>188990</t>
+          <t>169640</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -10236,7 +10234,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>797090</t>
+          <t>797070</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -10302,7 +10300,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>244380</t>
+          <t>244250</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -10544,7 +10542,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>107690</t>
+          <t>97890</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -10676,7 +10674,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>752160</t>
+          <t>752130</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -10786,7 +10784,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>1049970</t>
+          <t>1049950</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -10896,7 +10894,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>741870</t>
+          <t>741030</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -11292,7 +11290,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>164680</t>
+          <t>178970</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -11468,7 +11466,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>194400</t>
+          <t>194380</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -11512,7 +11510,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>71780</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -11864,7 +11862,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>313110</t>
+          <t>315360</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -11996,7 +11994,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>122800</t>
+          <t>122180</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -12546,7 +12544,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>476550</t>
+          <t>476530</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -12634,7 +12632,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>452600</t>
+          <t>452580</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -12832,7 +12830,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>54690</t>
+          <t>54630</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -13448,7 +13446,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>144990</t>
+          <t>144970</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -13976,7 +13974,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>89900</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -14130,7 +14128,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>221450</t>
+          <t>221430</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -14196,7 +14194,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>33030</t>
+          <t>35120</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -14460,7 +14458,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>138600</t>
+          <t>138570</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -15186,7 +15184,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>158190</t>
+          <t>158170</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -15648,7 +15646,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>91810</t>
+          <t>89820</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -16198,7 +16196,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>225460</t>
+          <t>225450</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -16330,7 +16328,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>537340</t>
+          <t>537320</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -17826,7 +17824,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>24490</t>
+          <t>24480</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -19168,7 +19166,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>179550</t>
+          <t>175770</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -19476,7 +19474,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>596780</t>
+          <t>596750</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
@@ -19806,7 +19804,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>88550</t>
+          <t>76900</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
@@ -20026,7 +20024,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>1905340</t>
+          <t>1905320</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
@@ -20202,7 +20200,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>449980</t>
+          <t>449960</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
@@ -20356,7 +20354,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>111090</t>
+          <t>111070</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
@@ -20794,10 +20792,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 30분(최대) / 충전시간: 3시간 / 리튬이온 / 18V / [청소] 싸이클론흡입 / 먼지감지센서 / 먼지통: 0.3L / [부가] 셀프스탠딩 / 프리볼트 / 먼지필터 / 무게: 1.4kg / 크기(가로x세로x깊이): 224x1043x163mm</t>
         </is>
       </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>600980</t>
-        </is>
+      <c r="C926" t="n">
+        <v>0</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -20818,7 +20814,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>193240</t>
+          <t>193210</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
@@ -20928,7 +20924,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>929840</t>
+          <t>929810</t>
         </is>
       </c>
       <c r="D932" t="inlineStr">
@@ -21016,7 +21012,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>50030</t>
+          <t>50840</t>
         </is>
       </c>
       <c r="D936" t="inlineStr">
@@ -21588,7 +21584,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>1266340</t>
+          <t>1266320</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
@@ -22612,17 +22608,17 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>RUN 지우개 청소기</t>
+          <t>PYHO Z7</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>탁상용청소기 / 무선 / 흡입형 / [배터리] 충전시간: 3시간</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 9000Pa / [구성] 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 40분(최대) / 충전시간: 5시간 / 리튬이온 / 2200mAh / [청소] LED라이트 / [부가] 헤파필터</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>104650</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr">
@@ -22634,17 +22630,17 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>PYHO Z7</t>
+          <t>RUN 지우개 청소기</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 9000Pa / [구성] 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 40분(최대) / 충전시간: 5시간 / 리튬이온 / 2200mAh / [청소] LED라이트 / [부가] 헤파필터</t>
+          <t>탁상용청소기 / 무선 / 흡입형 / [배터리] 충전시간: 3시간</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>104650</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="D1010" t="inlineStr">
@@ -22656,17 +22652,17 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>에이치앤오 데스크 청소기 502</t>
+          <t>PYHO P1MAX</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>탁상용청소기 / 무선 / 흡입형 / [배터리] 사용시간: 1시간30분(최대) / 1200mAh / [부가] USB충전 / 색상: 블루, 그레이, 핑크, 그린 / 무게: 156g / 크기(가로x세로x깊이): 85x110x85mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 24000Pa / [구성] 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 40분(최대) / 충전시간: 5시간 / 리튬이온 / 2000mAh / [청소] LED라이트 / BLDC모터 / 먼지통: 600mL / [부가] 디스플레이표시 / 헤파필터</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>9220</t>
+          <t>153990</t>
         </is>
       </c>
       <c r="D1011" t="inlineStr">
@@ -22678,17 +22674,17 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PYHO P1MAX</t>
+          <t>에이치앤오 데스크 청소기 502</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 24000Pa / [구성] 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 40분(최대) / 충전시간: 5시간 / 리튬이온 / 2000mAh / [청소] LED라이트 / BLDC모터 / 먼지통: 600mL / [부가] 디스플레이표시 / 헤파필터</t>
+          <t>탁상용청소기 / 무선 / 흡입형 / [배터리] 사용시간: 1시간30분(최대) / 1200mAh / [부가] USB충전 / 색상: 블루, 그레이, 핑크, 그린 / 무게: 156g / 크기(가로x세로x깊이): 85x110x85mm</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>153990</t>
+          <t>9220</t>
         </is>
       </c>
       <c r="D1012" t="inlineStr">
@@ -23370,7 +23366,7 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>19340</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr">
@@ -23544,10 +23540,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 10000Pa / 2022년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / [배터리] 충전시간: 5시간 / 리튬이온 / [청소] LED라이트 / [부가] 헤파필터 / 색상: 스웨디시블루</t>
         </is>
       </c>
-      <c r="C1051" t="inlineStr">
-        <is>
-          <t>135300</t>
-        </is>
+      <c r="C1051" t="n">
+        <v>0</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -23624,17 +23618,17 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>포콘스 디즈니 도날드덕 PD-VC01</t>
+          <t>디온리 애니웨어 NDV242W</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 13000Pa / 소비전력: 100W / [구성] 솔형 / [배터리] 사용시간: 25분(최대) / 충전시간: 3시간30분 / 2000mAh / [부가] USB충전 / 헤파필터 / 색상: 화이트</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 15000Pa / 소비전력: 100W / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 25분(최대) / 충전시간: 3.5시간 / 1980mAh / [청소] BLDC모터 / 먼지통: 150mL / [부가] USB충전 / 워셔블헤파필터 / 무게: 535g / 크기(가로x세로x깊이): 58x344x58mm</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>55610</t>
         </is>
       </c>
       <c r="D1055" t="inlineStr">
@@ -23646,17 +23640,17 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>디온리 애니웨어 NDV242W</t>
+          <t>포콘스 디즈니 도날드덕 PD-VC01</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 15000Pa / 소비전력: 100W / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 25분(최대) / 충전시간: 3.5시간 / 1980mAh / [청소] BLDC모터 / 먼지통: 150mL / [부가] USB충전 / 워셔블헤파필터 / 무게: 535g / 크기(가로x세로x깊이): 58x344x58mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 13000Pa / 소비전력: 100W / [구성] 솔형 / [배터리] 사용시간: 25분(최대) / 충전시간: 3시간30분 / 2000mAh / [부가] USB충전 / 헤파필터 / 색상: 화이트</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>55610</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="D1056" t="inlineStr">
@@ -24426,7 +24420,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>705150</t>
+          <t>705130</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr">
@@ -24844,7 +24838,7 @@
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>175770</t>
+          <t>175760</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr">
@@ -25240,7 +25234,7 @@
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>32200</t>
+          <t>32100</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr">
@@ -25384,17 +25378,17 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>LG전자 코드제로 A9S AS9471BWKT</t>
+          <t>노뉴 마스터클린 NONEW-VC1000</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(동시) / 흡입력: 210W / 소비전력: 590W / 2021년형 / [구성] 거치대: 올인원타워 / 먼지비움 / 충전 / 액서서리수납 / 스탠드거치 / 먼지비움시간: 60초 / 브러쉬: 바닥 / 물걸레: 일반 / 솔형 / 틈새 / 먼지봉투: 2.5L / [배터리] 사용시간: 1시간(최대) / 충전시간: 4시간 / 분리형(2개) / 리튬이온 / 25.2V / [청소] 싸이클론흡입 / 자동물공급 / 스마트인버터모터 / [부가] 스마트폰제어 / 배터리잔량표시 / 워셔블헤파필터 / 5단계여과 / 색상: 블랙+카밍베이지 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 12000Pa / 소비전력: 30W / 2021년형 / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 18분(최대) / 충전시간: 3시간30분 / 2000mAh / 11.1V / [청소] 싸이클론흡입 / BLDC모터 / [부가] 배터리잔량표시 / 셀프스탠딩 / 워셔블헤파필터 / 2단계여과 / 색상: 화이트, 블랙 / 무게: 0.58kg / 크기(가로x세로x깊이): 75x435x75mm</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>1100080</t>
+          <t>61880</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
@@ -25406,17 +25400,17 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>노뉴 마스터클린 NONEW-VC1000</t>
+          <t>LG전자 코드제로 A9S AS9471BWKT</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 12000Pa / 소비전력: 30W / 2021년형 / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 18분(최대) / 충전시간: 3시간30분 / 2000mAh / 11.1V / [청소] 싸이클론흡입 / BLDC모터 / [부가] 배터리잔량표시 / 셀프스탠딩 / 워셔블헤파필터 / 2단계여과 / 색상: 화이트, 블랙 / 무게: 0.58kg / 크기(가로x세로x깊이): 75x435x75mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(동시) / 흡입력: 210W / 소비전력: 590W / 2021년형 / [구성] 거치대: 올인원타워 / 먼지비움 / 충전 / 액서서리수납 / 스탠드거치 / 먼지비움시간: 60초 / 브러쉬: 바닥 / 물걸레: 일반 / 솔형 / 틈새 / 먼지봉투: 2.5L / [배터리] 사용시간: 1시간(최대) / 충전시간: 4시간 / 분리형(2개) / 리튬이온 / 25.2V / [청소] 싸이클론흡입 / 자동물공급 / 스마트인버터모터 / [부가] 스마트폰제어 / 배터리잔량표시 / 워셔블헤파필터 / 5단계여과 / 색상: 블랙+카밍베이지 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>61880</t>
+          <t>1100080</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr">
@@ -25680,7 +25674,7 @@
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>210320</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr">
@@ -25846,17 +25840,17 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>삼성전자 제트 VS15R8543Q4CW</t>
+          <t>샤오미 지미 JV85 프로</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 150W / 소비전력: 410W / 2021년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간30분 / 분리형(1개) / 리튬이온 / 21.6V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 틸바이올렛 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 200AW / 흡입력: 25000Pa / 소비전력: 550W / [구성] 충전 / 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간10분(최대) / 충전시간: 4시간30분 / 분리형(1개) / 28.8V / [청소] 싸이클론흡입 / 먼지통: 0.6L / [부가] 배터리잔량표시 / 워셔블헤파필터 / 색상: 퍼플</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>544380</t>
+          <t>272990</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr">
@@ -25868,17 +25862,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>샤오미 지미 JV85 프로</t>
+          <t>삼성전자 제트 VS15R8543Q4CW</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 200AW / 흡입력: 25000Pa / 소비전력: 550W / [구성] 충전 / 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간10분(최대) / 충전시간: 4시간30분 / 분리형(1개) / 28.8V / [청소] 싸이클론흡입 / 먼지통: 0.6L / [부가] 배터리잔량표시 / 워셔블헤파필터 / 색상: 퍼플</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 150W / 소비전력: 410W / 2021년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간30분 / 분리형(1개) / 리튬이온 / 21.6V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 틸바이올렛 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>272990</t>
+          <t>544380</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr">
@@ -26296,7 +26290,7 @@
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>527000</t>
+          <t>542700</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr">
@@ -26352,17 +26346,17 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>삼성전자 제트 VS20T9213QDCSP</t>
+          <t>캐치웰 미니제트</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 200W / 소비전력: 550W / 2020년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 물걸레: 별매 / 솔형 / 틈새 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 21.6V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 15000Pa / 소비전력: 120W / 2020년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 틈새 / 패브릭 / 연장관 / [배터리] 사용시간: 20분(최대) / 충전시간: 4시간 / 2000mAh / 11.1V / [청소] BLDC모터 / 먼지통: 0.1L / [부가] 프리볼트 / 워셔블헤파필터 / 색상: 화이트 / 무게: 0.575kg</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>853760</t>
+          <t>127470</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr">
@@ -26374,17 +26368,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>캐치웰 미니제트</t>
+          <t>삼성전자 제트 VS20T9213QDCSP</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 15000Pa / 소비전력: 120W / 2020년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 틈새 / 패브릭 / 연장관 / [배터리] 사용시간: 20분(최대) / 충전시간: 4시간 / 2000mAh / 11.1V / [청소] BLDC모터 / 먼지통: 0.1L / [부가] 프리볼트 / 워셔블헤파필터 / 색상: 화이트 / 무게: 0.575kg</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 200W / 소비전력: 550W / 2020년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 물걸레: 별매 / 솔형 / 틈새 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 21.6V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>127470</t>
+          <t>853760</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr">
@@ -27000,7 +26994,7 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>47650</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr">
@@ -27152,10 +27146,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 200W / 소비전력: 590W / 2020년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 물걸레: 별매 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 1시간(최대) / 충전시간: 4시간 / 분리형(2개) / 리튬이온 / [청소] 싸이클론흡입 / 인버터모터 / [부가] 스마트폰제어 / 디스플레이표시 / 배터리잔량표시 / 워셔블헤파필터 / 5단계여과 / 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
         </is>
       </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>271000</t>
-        </is>
+      <c r="C1215" t="n">
+        <v>0</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -27276,17 +27268,17 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>삼성전자 제트 VS20T9279S6</t>
+          <t>마이프랜드 MF-7800VC</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 200W / 소비전력: 550W / 2020년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 물걸레: 일반 / 펫 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 21.9V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 티탄+블루 / 크기(가로x세로x깊이): 250x1136x215mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 8000Pa / [구성] 스탠드거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 충전시간: 5시간 / 리튬이온 / 2200mAh / 18V / [청소] 싸이클론흡입 / [부가] 프리볼트 / 헤파필터 / 색상: 핑크 / 무게: 1.1kg / 크기(가로x세로x깊이): 90x1000x85mm</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>1082060</t>
+          <t>75040</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr">
@@ -27298,17 +27290,17 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>마이프랜드 MF-7800VC</t>
+          <t>삼성전자 제트 VS20T9279S6</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 8000Pa / [구성] 스탠드거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 충전시간: 5시간 / 리튬이온 / 2200mAh / 18V / [청소] 싸이클론흡입 / [부가] 프리볼트 / 헤파필터 / 색상: 핑크 / 무게: 1.1kg / 크기(가로x세로x깊이): 90x1000x85mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 200W / 소비전력: 550W / 2020년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 물걸레: 일반 / 펫 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 21.9V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 티탄+블루 / 크기(가로x세로x깊이): 250x1136x215mm</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>75040</t>
+          <t>1082060</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr">
@@ -27330,7 +27322,7 @@
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>65900</t>
+          <t>65890</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr">
@@ -27452,17 +27444,17 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>지니어스 인빅터스 X7</t>
+          <t>디오바코 V100 LDVCLA100</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 380W / 2020년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간20분 / 분리형(1개) / 리튬이온 / LED라이트 / BLDC모터 / [부가] 워셔블헤파필터 / 3단계여과 / 색상: 블루/네이비 / 무게: 2.6kg</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 120W / [구성] 충전 / 벽걸이거치 / 브러쉬: 바닥 / 틈새 / 연장관 / [배터리] 사용시간: 30분(최대) / 충전시간: 5시간 / 분리형(1개) / 리튬이온 / 2200mAh / 22.2V / [청소] 싸이클론흡입 / LED라이트 / [부가] 프리볼트 / 워셔블헤파필터 / 4단계여과 / 색상: 화이트</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>459820</t>
+          <t>270000</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr">
@@ -27496,17 +27488,17 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>디오바코 V100 LDVCLA100</t>
+          <t>지니어스 인빅터스 X7</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 120W / [구성] 충전 / 벽걸이거치 / 브러쉬: 바닥 / 틈새 / 연장관 / [배터리] 사용시간: 30분(최대) / 충전시간: 5시간 / 분리형(1개) / 리튬이온 / 2200mAh / 22.2V / [청소] 싸이클론흡입 / LED라이트 / [부가] 프리볼트 / 워셔블헤파필터 / 4단계여과 / 색상: 화이트</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 380W / 2020년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간20분 / 분리형(1개) / 리튬이온 / LED라이트 / BLDC모터 / [부가] 워셔블헤파필터 / 3단계여과 / 색상: 블루/네이비 / 무게: 2.6kg</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>270000</t>
+          <t>459820</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr">
@@ -28186,10 +28178,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 120AW / 흡입력: 20000Pa / 소비전력: 400W / [구성] 충전 / 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 리튬이온 / 2500mAh / 25.2V / 싸이클론흡입 / BLDC모터 / 먼지통: 0.5L / [부가] 헤파필터 / 5단계여과 / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로): 258x1226mm</t>
         </is>
       </c>
-      <c r="C1262" t="inlineStr">
-        <is>
-          <t>158050</t>
-        </is>
+      <c r="C1262" t="n">
+        <v>0</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -28406,10 +28396,8 @@
           <t>핸디스틱청소기+물걸레청소기세트 / 무선 / 흡입+물걸레(교체) / [구성] 솔형 / 틈새 / [배터리] 사용시간: 25분~40분(최대) / 충전시간: 3시간 / 리튬이온 / 22.2V / [부가] 먼지필터 / 색상: 레드, 블루 / 무게: 1.4kg / 기(가로x세로x깊이): 320x320x85mm [벤투스아쿠아] 물걸레청소기 / 물걸레+진공 / 회전식 / 무선형 / 리튬이온 / 충전시간: 4~5시간 / 사용시간: 30분</t>
         </is>
       </c>
-      <c r="C1272" t="inlineStr">
-        <is>
-          <t>399800</t>
-        </is>
+      <c r="C1272" t="n">
+        <v>0</v>
       </c>
       <c r="D1272" t="inlineStr">
         <is>
@@ -28442,17 +28430,17 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>지웰 ST-9500 + GCOP-9200</t>
+          <t>지웰 ST-9500 + GCOP-9100</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>핸디/스틱청소기+핸디/스틱청소기 / 무선 / 흡입형 / [구성] 솔형 / 틈새 / [배터리] 사용시간: 25분~40분(최대) / 충전시간: 3시간 / 리튬이온 / 22.2V / [부가] 먼지필터 / 색상: 레드, 블루 / 무게: 1.4kg / 크기(가로x세로x깊이): 320x320x85mm [GCOP-9200] 핸디 / 스틱청소기 / 핸디+스틱형 / 흡입방식: 4~5시간 / 사용시간: 45분 / 브러쉬: 솔형, 틈새, 연장관 / 색상: 퍼플, 로즈골드</t>
+          <t>핸디/스틱청소기+핸디/스틱청소기 / 무선 / 흡입형 / [구성] 솔형 / 틈새 / [배터리] 사용시간: 25분~40분(최대) / 충전시간: 3시간 / 리튬이온 / 22.2V / [부가] 먼지필터 / 색상: 레드, 블루 / 무게: 1.4kg / 크기(가로x세로x깊이): 320x320x85mm [G-COP 9100] 핸디 / 스틱청소기 / 핸디+스틱형 / 충전시간: 4~5시간 / 사용시간: 20~22분 / 필터: 헤파필터 / 크기(가로x세로x깊이): 372x104x230mm</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>499800</t>
+          <t>399800</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr">
@@ -28464,17 +28452,17 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>지웰 ST-9500 + GCOP-9100</t>
+          <t>지웰 ST-9500 + GCOP-9200</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>핸디/스틱청소기+핸디/스틱청소기 / 무선 / 흡입형 / [구성] 솔형 / 틈새 / [배터리] 사용시간: 25분~40분(최대) / 충전시간: 3시간 / 리튬이온 / 22.2V / [부가] 먼지필터 / 색상: 레드, 블루 / 무게: 1.4kg / 크기(가로x세로x깊이): 320x320x85mm [G-COP 9100] 핸디 / 스틱청소기 / 핸디+스틱형 / 충전시간: 4~5시간 / 사용시간: 20~22분 / 필터: 헤파필터 / 크기(가로x세로x깊이): 372x104x230mm</t>
+          <t>핸디/스틱청소기+핸디/스틱청소기 / 무선 / 흡입형 / [구성] 솔형 / 틈새 / [배터리] 사용시간: 25분~40분(최대) / 충전시간: 3시간 / 리튬이온 / 22.2V / [부가] 먼지필터 / 색상: 레드, 블루 / 무게: 1.4kg / 크기(가로x세로x깊이): 320x320x85mm [GCOP-9200] 핸디 / 스틱청소기 / 핸디+스틱형 / 흡입방식: 4~5시간 / 사용시간: 45분 / 브러쉬: 솔형, 틈새, 연장관 / 색상: 퍼플, 로즈골드</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>399800</t>
+          <t>499800</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr">
@@ -28552,18 +28540,16 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>DIBEA T8 프로</t>
+          <t>지웰 ST-007 + 8040MT</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 17000Pa / 소비전력: 250W / 2019년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 30분(최대) / 충전시간: 4~5시간 / 리튬이온 / 2200mAh / 22.2V / 싸이클론흡입 / 먼지통: 0.55L / [부가] 워셔블먼지필터 / 4단계여과 / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
-        </is>
-      </c>
-      <c r="C1279" t="inlineStr">
-        <is>
-          <t>268000</t>
-        </is>
+          <t>핸디/스틱청소기+핸디/스틱청소기 / 무선 / 흡입형 / 흡입력: 7000Pa / 소비전력: 110W / [구성] 틈새 / [배터리] 사용시간: 60분(최대) / 충전시간: 4시간30뷴 / 리튬이온 / 22.2V / [청소] LED라이트 / [부가] 헤파필터 / 색상: 와인, 로즈골드, 퍼플 / 무게: 1.4kg / 크기(가로x세로x깊이): 350x1180x160mm [GWELL-8040MT] 핸디 / 스틱청소기 / 핸디+스틱형 / 충전시간: 3시간 / 사용시간: 45분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 주요기능: LED라이트 / 색상: 퍼플, 핑크 / 거치대</t>
+        </is>
+      </c>
+      <c r="C1279" t="n">
+        <v>0</v>
       </c>
       <c r="D1279" t="inlineStr">
         <is>
@@ -28574,17 +28560,17 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>이노크아든 IA-I9V2</t>
+          <t>DIBEA T8 프로</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 130W / 2019년형 / [구성] 충전 / 벽걸이거치 / 브러쉬: 바닥 / 틈새 / 연장관 / [배터리] 사용시간: 35분(최대) / 충전시간: 4~5시간 / 분리형(1개) / 리튬이온 / 22.2V / [청소] 싸이클론흡입 / LED라이트 / [부가] 프리볼트 / 헤파필터 / 3단계여과 / 색상: 그레이/실버 / 무게: 1.97kg / 크기(가로x세로x깊이): 245x1080x150mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 17000Pa / 소비전력: 250W / 2019년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 30분(최대) / 충전시간: 4~5시간 / 리튬이온 / 2200mAh / 22.2V / 싸이클론흡입 / 먼지통: 0.55L / [부가] 워셔블먼지필터 / 4단계여과 / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>128000</t>
+          <t>268000</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr">
@@ -28596,12 +28582,12 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>지웰 ST-007 + 8040MT</t>
+          <t>이노크아든 IA-I9V2</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>핸디/스틱청소기+핸디/스틱청소기 / 무선 / 흡입형 / 흡입력: 7000Pa / 소비전력: 110W / [구성] 틈새 / [배터리] 사용시간: 60분(최대) / 충전시간: 4시간30뷴 / 리튬이온 / 22.2V / [청소] LED라이트 / [부가] 헤파필터 / 색상: 와인, 로즈골드, 퍼플 / 무게: 1.4kg / 크기(가로x세로x깊이): 350x1180x160mm [GWELL-8040MT] 핸디 / 스틱청소기 / 핸디+스틱형 / 충전시간: 3시간 / 사용시간: 45분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 주요기능: LED라이트 / 색상: 퍼플, 핑크 / 거치대</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 130W / 2019년형 / [구성] 충전 / 벽걸이거치 / 브러쉬: 바닥 / 틈새 / 연장관 / [배터리] 사용시간: 35분(최대) / 충전시간: 4~5시간 / 분리형(1개) / 리튬이온 / 22.2V / [청소] 싸이클론흡입 / LED라이트 / [부가] 프리볼트 / 헤파필터 / 3단계여과 / 색상: 그레이/실버 / 무게: 1.97kg / 크기(가로x세로x깊이): 245x1080x150mm</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -29154,10 +29140,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 130W / 소비전력: 400W / 2018년형 / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / [배터리] 사용시간: 40분(최대) / 충전시간: 4시간30분 / 리튬이온 / 32.4V / 싸이클론흡입 / 인버터모터 / [부가] 헤파필터 / 5단계여과 / 색상: 에어본블랙 / 무게: 2.95kg / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
         </is>
       </c>
-      <c r="C1306" t="inlineStr">
-        <is>
-          <t>656100</t>
-        </is>
+      <c r="C1306" t="n">
+        <v>0</v>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -29220,10 +29204,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 7000Pa / 소비전력: 150W / 2018년형 / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 45분(최대) / 충전시간: 3시간 / 분리형(1개) / 리튬이온 / 2000mAh / 22.2V / LED라이트 / [부가] 먼지필터 / 색상: 퍼플, 핑크 / 무게: 1.4kg</t>
         </is>
       </c>
-      <c r="C1309" t="inlineStr">
-        <is>
-          <t>1002500</t>
-        </is>
+      <c r="C1309" t="n">
+        <v>0</v>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
@@ -29300,17 +29282,17 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>테팔 에어포스 익스트림 파워프로 TY8895</t>
+          <t>신일전자 더쎈 SVC-ECO150</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>스틱청소기 / 무선 / 흡입형 / [구성] 브러쉬: 바닥 / 틈새 / [배터리] 사용시간: 75분(최대) / 충전시간: 6시간 / 리튬이온 / 32.4V / [청소] 싸이클론흡입 / LED라이트 / [부가] 셀프스탠딩 / 헤파필터 / 5단계여과 / 색상: 블랙 / 무게: 4.76KG / 크기(가로x세로x깊이): 250x1100x210mm</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 150W / 2018년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 20분(최대) / 충전시간: 5~6시간 / 리튬이온 / 2000mAh / 21.6V / [청소] LED라이트 / [부가] 프리볼트 / 헤파필터 / 3단계여과 / 무게: 1.3kg / 크기(가로x세로x깊이): 230x1120x300mm</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>557070</t>
+          <t>158870</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr">
@@ -29322,17 +29304,17 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>신일전자 더쎈 SVC-ECO150</t>
+          <t>테팔 에어포스 익스트림 파워프로 TY8895</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 150W / 2018년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 20분(최대) / 충전시간: 5~6시간 / 리튬이온 / 2000mAh / 21.6V / [청소] LED라이트 / [부가] 프리볼트 / 헤파필터 / 3단계여과 / 무게: 1.3kg / 크기(가로x세로x깊이): 230x1120x300mm</t>
+          <t>스틱청소기 / 무선 / 흡입형 / [구성] 브러쉬: 바닥 / 틈새 / [배터리] 사용시간: 75분(최대) / 충전시간: 6시간 / 리튬이온 / 32.4V / [청소] 싸이클론흡입 / LED라이트 / [부가] 셀프스탠딩 / 헤파필터 / 5단계여과 / 색상: 블랙 / 무게: 4.76KG / 크기(가로x세로x깊이): 250x1100x210mm</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>158870</t>
+          <t>557070</t>
         </is>
       </c>
       <c r="D1314" t="inlineStr">
@@ -29682,10 +29664,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 140W / 소비전력: 450W / [구성] 브러쉬: 바닥 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간30분 / 분리형(1개) / 리튬이온 / 싸이클론흡입 / 인버터모터 / [부가] 워셔블헤파필터 / 5단계여과 / 색상: 아쿠아블루 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
         </is>
       </c>
-      <c r="C1330" t="inlineStr">
-        <is>
-          <t>109000</t>
-        </is>
+      <c r="C1330" t="n">
+        <v>0</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -29726,10 +29706,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 35W / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / [배터리] 사용시간: 12~15분(최대) / 충전시간: 8시간~10시간 / 7.2V / [부가] 헤파필터 / 색상: 블랙 / 무게: 0.8kg / 건습식 / 크기(가로x세로x깊이): 360.3x105.4x111.6mm</t>
         </is>
       </c>
-      <c r="C1332" t="inlineStr">
-        <is>
-          <t>69800</t>
-        </is>
+      <c r="C1332" t="n">
+        <v>0</v>
       </c>
       <c r="D1332" t="inlineStr">
         <is>
@@ -30300,7 +30278,7 @@
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>55890</t>
+          <t>1710000</t>
         </is>
       </c>
       <c r="D1358" t="inlineStr">
@@ -30320,10 +30298,8 @@
           <t>핸디스틱청소기+로봇청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 250W / 2023년형 / [구성] 거치대: 청정스테이션 / 먼지비움 / 싸이클론비움 / 충전 / UVC LED / 스탠드거치 / 먼지비움시간: 14초 / 브러쉬: 바닥 / 물걸레: 고온 / 솔형 / 틈새 / 먼지봉투: 1.2L / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 2200+2200mAh / 25.2V / [청소] 싸이클론흡입 / AI청소 / LED라이트 / 물분사 / 먼지감지센서 / 디지털인버터모터 / 먼지통: 0.5L / 물통: 0.15L / [부가] 스마트폰제어 / 대화형알림창 / 배터리잔량표시 / 항균물통 / 워셔블헤파필터 / 5단계여과 / 색상: 새틴베이지 / 무게: 2.67kg / 크기(가로x세로x깊이): 350x1066x300mm / ※ 상품 옵션 확인 후 구매 / 출시가: 1,549,000원</t>
         </is>
       </c>
-      <c r="C1359" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1359" t="n">
+        <v>0</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
@@ -30342,10 +30318,8 @@
           <t>탁상용청소기 / 무선 / 흡입형 / [배터리] 사용시간: 1시간20분(최대) / 충전시간: 4시간 / [부가] USB충전 / 무게: 220g / 자동꺼짐:10분 / 모터속도: 최대 15,000RPM / 크기(가로x세로x깊이): 81x104x81mm</t>
         </is>
       </c>
-      <c r="C1360" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1360" t="n">
+        <v>0</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
@@ -30364,10 +30338,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 27000Pa / 소비전력: 250W / 2023년형 / [구성] 충전 / 벽걸이거치 / 브러쉬: 레이저바닥 / 솔형 / 틈새 / [배터리] 사용시간: 30분(최대) / 충전시간: 4시간 / 분리형(1개) / 리튬이온 / 2200mAh / 22.2V / [청소] LED라이트 / BLDC모터 / [부가] 배터리잔량표시 / 헤파필터 / 색상: 블랙 / 무게: 2.28kg</t>
         </is>
       </c>
-      <c r="C1361" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1361" t="n">
+        <v>0</v>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
@@ -30386,10 +30358,8 @@
           <t>핸디스틱청소기+로봇청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 280W / 2023년형 / [구성] 거치대: 청정스테이션 / 먼지비움 / 싸이클론비움 / 충전 / UVC LED / 스탠드거치 / 먼지비움시간: 14초 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / 먼지봉투: 1.2L / [배터리] 사용시간: 1시간20분(최대) / 충전시간: 5시간 / 분리형(2개) / 리튬이온 / 3970+2200mAh / 25.2V / [청소] 싸이클론흡입 / LED라이트 / 물분사 / 먼지감지센서 / 디지털인버터모터 / 먼지통: 0.5L / [부가] 스마트폰제어 / 대화형알림창 / 디스플레이표시 / 배터리잔량표시 / 항균물통 / 워셔블헤파필터 / 5단계여과 / 색상: 새틴세이지그린 / 크기(가로x세로x깊이): 250x942x243mm / ※ 상품 옵션 확인 후 구매</t>
         </is>
       </c>
-      <c r="C1362" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1362" t="n">
+        <v>0</v>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
@@ -30408,10 +30378,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 12000Pa / 2023년형 / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 20분(최대) / 충전시간: 4시간 / 2000mAh / [청소] 먼지통: 0.35L / [부가] 헤파필터 / 색상: 화이트 / 무게: 532g / 크기(가로x세로x깊이): 385x137x92mm</t>
         </is>
       </c>
-      <c r="C1363" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1363" t="n">
+        <v>0</v>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
@@ -30430,10 +30398,8 @@
           <t>핸디스틱청소기+로봇청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 280W / 2023년형 / [구성] 거치대: 청정스테이션 / 먼지비움 / 싸이클론비움 / 충전 / UVC LED / 스탠드거치 / 먼지비움시간: 14초 / 브러쉬: 바닥 / 물걸레: 일반 / 솔형 / 틈새 / 먼지봉투: 1.2L / [배터리] 사용시간: 1시간20분(최대) / 충전시간: 5시간 / 분리형(2개) / 리튬이온 / 3970+2200mAh / 25.2V / [청소] 싸이클론흡입 / LED라이트 / 물분사 / 먼지감지센서 / 디지털인버터모터 / 먼지통: 0.5L / [부가] 스마트폰제어 / 대화형알림창 / 디스플레이표시 / 배터리잔량표시 / 항균물통 / 워셔블헤파필터 / 5단계여과 / 색상: 새틴그레이지 / 크기(가로x세로x깊이): 250x942x243mm / ※ 상품 옵션 확인 후 구매</t>
         </is>
       </c>
-      <c r="C1364" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1364" t="n">
+        <v>0</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
@@ -30452,10 +30418,8 @@
           <t>핸디스틱청소기+로봇청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 250W / 2023년형 / [구성] 거치대: 청정스테이션 / 먼지비움 / 싸이클론비움 / 충전 / UVC LED / 스탠드거치 / 먼지비움시간: 14초 / 브러쉬: 바닥 / 물걸레: 일반 / 솔형 / 틈새 / 먼지봉투: 1.2L / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(1개) / 리튬이온 / 2200mAh / 25.2V / [청소] 싸이클론흡입 / LED라이트 / 물분사 / 먼지감지센서 / 디지털인버터모터 / 먼지통: 0.5L / [부가] 스마트폰제어 / 대화형알림창 / 배터리잔량표시 / 항균물통 / 워셔블헤파필터 / 5단계여과 / 색상: 새틴차콜 / 크기(가로x세로x깊이): 250x942x243mm / ※ 상품 옵션 확인 후 구매 / 출시가: 1,549,000원</t>
         </is>
       </c>
-      <c r="C1365" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1365" t="n">
+        <v>0</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
@@ -30474,10 +30438,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 9000Pa / 2021년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 30분(최대) / 2000mAh / [부가] 배터리잔량표시 / 헤파필터 / 2단계여과 / 색상: 민트 / 무게: 870g</t>
         </is>
       </c>
-      <c r="C1366" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1366" t="n">
+        <v>0</v>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
@@ -30496,10 +30458,8 @@
           <t>핸디스틱청소기+로봇청소기 / 무선 / 흡입형 / 흡입력: 220W / 2022년형 / [구성] 거치대: 청정스테이션 / 먼지비움 / 충전 / UVC LED / 스탠드거치 / 먼지비움시간: 14초 / 브러쉬: 바닥 / 물걸레: 별매 / 솔형 / 틈새 / 연장관 / 먼지봉투: 1.2L / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(1개) / 리튬이온 / 2200mAh / 25.2V / [청소] 싸이클론흡입 / LED라이트 / 디지털인버터모터 / 먼지통: 0.5L / [부가] 스마트폰제어 / 대화형알림창 / 디스플레이표시 / 배터리잔량표시 / 항균물통 / 워셔블헤파필터 / 5단계여과 / 색상: 페블그레이 / 크기(가로x세로x깊이): 250x930x202mm / ※ 상품 옵션 확인 후 구매</t>
         </is>
       </c>
-      <c r="C1367" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1367" t="n">
+        <v>0</v>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
@@ -30518,10 +30478,8 @@
           <t>핸디스틱청소기+로봇청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 220W / 2022년형 / [구성] 거치대: 청정스테이션 / 먼지비움 / 충전 / UVC LED / 스탠드거치 / 먼지비움시간: 14초 / 브러쉬: 바닥 / 솔형 / 틈새 / 먼지봉투: 1.2L / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 2200+2200mAh / 25.2V / [청소] 싸이클론흡입 / LED라이트 / 자동물공급 / 물분사 / 디지털인버터모터 / 먼지통: 0.5L / [부가] 스마트폰제어 / 대화형알림창 / 디스플레이표시 / 배터리잔량표시 / 항균물통 / 워셔블헤파필터 / 5단계여과 / 색상: 산토리니베이지 / 크기(가로x세로x깊이): 250x930x202mm / ※ 상품 옵션 확인 후 구매</t>
         </is>
       </c>
-      <c r="C1368" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1368" t="n">
+        <v>0</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -30540,10 +30498,8 @@
           <t>신발세척기 / 무선 / 전동회전 / 회전속도: 500RPM / 무게: 351g / 전원방식: AA건전지 / 브러쉬: 하드, 소프트, 스폰지 / 크기(가로x세로x깊이): 60x170x69mm / ※ 상품 옵션 확인 후 구매</t>
         </is>
       </c>
-      <c r="C1369" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1369" t="n">
+        <v>0</v>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
@@ -30562,10 +30518,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / [배터리] 사용시간: 20분(최대) / 분리형(1개) / 리튬이온 / 2500mAh / BLDC모터 / 먼지통: 0.8L / [부가] 헤파필터 / 3단계여과 / 색상: 화이트+실버 / 크기(가로x세로x깊이): 270x1090x150mm</t>
         </is>
       </c>
-      <c r="C1370" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1370" t="n">
+        <v>0</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -30584,10 +30538,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 150AW / 흡입력: 22000Pa / 소비전력: 450W / [구성] 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(1개) / 2500mAh / 25.2V / [청소] BLDC모터 / 먼지통: 0.4L / [부가] 배터리잔량표시 / 헤파필터 / 5단계여과 / 색상: 그레이/실버 / 무게: 1.45kg</t>
         </is>
       </c>
-      <c r="C1371" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1371" t="n">
+        <v>0</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -30606,10 +30558,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입+물걸레(동시) / 흡입력: 210W / 소비전력: 590W / 2021년형 / [구성] 거치대: 올인원타워 / 먼지비움 / 충전 / 액서서리수납 / 스탠드거치 / 먼지비움시간: 60초 / 브러쉬: 바닥 / 물걸레: 일반 / 펫 / 솔형 / 틈새 / 먼지봉투: 2.5L / [배터리] 사용시간: 1시간(최대) / 충전시간: 4시간 / 분리형(2개) / 리튬이온 / 25.2V / [청소] 싸이클론흡입 / 자동물공급 / 스마트인버터모터 / [부가] 스마트폰제어 / 배터리잔량표시 / 워셔블헤파필터 / 5단계여과 / 색상: 딥그레이/블랙+카밍그린 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
         </is>
       </c>
-      <c r="C1372" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1372" t="n">
+        <v>0</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
@@ -30628,10 +30578,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입+물걸레(동시) / 흡입력: 210W / 소비전력: 590W / 2021년형 / [구성] 거치대: 올인원타워 / 먼지비움 / 충전 / 액서서리수납 / 스탠드거치 / 먼지비움시간: 60초 / 브러쉬: 바닥 / 물걸레: 일반 / 침구 / 솔형 / 틈새 / 먼지봉투: 2.5L / [배터리] 사용시간: 1시간(최대) / 충전시간: 4시간 / 분리형(2개) / 리튬이온 / 25.2V / [청소] 싸이클론흡입 / 자동물공급 / 스마트인버터모터 / [부가] 스마트폰제어 / 디스플레이표시 / 배터리잔량표시 / 워셔블헤파필터 / 5단계여과 / 색상: 카밍베이지+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
         </is>
       </c>
-      <c r="C1373" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1373" t="n">
+        <v>0</v>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
@@ -30650,10 +30598,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 210W / 2021년형 / [구성] 거치대: 청정스테이션 / 먼지비움 / 충전 / 스탠드거치 / 먼지비움시간: 20초 / 브러쉬: 바닥 / 물걸레: 일반 / 침구 / 펫 / 솔형 / 틈새 / 먼지봉투: 1.2L / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 2200+2200mAh / 25.2V / [청소] 싸이클론흡입 / 자동물공급 / 물분사 / 디지털인버터모터 / 먼지통: 0.5L / [부가] 대화형알림창 / 디스플레이표시 / 배터리잔량표시 / 워셔블헤파필터 / 5단계여과 / 색상: 썬옐로우 / 무게: 2.5kg / 크기(가로x세로x깊이): 250x930x202mm</t>
         </is>
       </c>
-      <c r="C1374" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1374" t="n">
+        <v>0</v>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
@@ -30672,10 +30618,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 200W / 소비전력: 550W / 2020년형 / [구성] 거치대: 청정스테이션 / 먼지비움 / 먼지비움시간: 20초 / 브러쉬: 바닥 / 물걸레: 일반 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 21.6V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 티탄+민트 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
         </is>
       </c>
-      <c r="C1375" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1375" t="n">
+        <v>0</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
@@ -30694,10 +30638,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 200W / 소비전력: 550W / 2019년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 물걸레: 일반 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(1개) / 리튬이온 / 21.9V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 실버+블루 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1136x215mm</t>
         </is>
       </c>
-      <c r="C1376" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1376" t="n">
+        <v>0</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -30716,10 +30658,8 @@
           <t>욕실청소기 / 무선 / 전동회전 / 소비전력: 9W / 2020년형 / [배터리] 사용시간: 2시간(최대) / 충전시간: 2시간30분 / 2000mAh / 7.2V / [부가] 생활방수 / USB충전 / 색상: 화이트 / 무게: 0.6kg / 방수 / 브러쉬: 극세사걸레, 수세미, 청소솔, 스펀지</t>
         </is>
       </c>
-      <c r="C1377" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1377" t="n">
+        <v>0</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
@@ -30738,10 +30678,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 12000Pa / 소비전력: 200W / 2020년형 / [구성] 브러쉬: 바닥 / 물걸레: 일반 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 30분(최대) / 충전시간: 5시간 / 리튬이온 / 2200mAh / 22.2V / 싸이클론흡입 / [부가] 헤파필터 / 색상: 로즈골드 / 무게: 1.1kg</t>
         </is>
       </c>
-      <c r="C1378" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1378" t="n">
+        <v>0</v>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
@@ -30760,10 +30698,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 190W / 2020년형 / [구성] 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 20분(최대) / 18V / LED라이트 / 인버터모터 / [부가] 먼지필터 / 색상: 빈티지와인 / 크기(가로x세로x깊이): 270x1105x190mm</t>
         </is>
       </c>
-      <c r="C1379" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1379" t="n">
+        <v>0</v>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
@@ -30782,10 +30718,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 22000Pa / 소비전력: 400W / 2020년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 틈새 / 연장관 / [배터리] 사용시간: 1시간10분(최대) / 분리형(1개) / 리튬이온 / 2500mAh / 28.8V / [청소] 싸이클론흡입 / LED라이트 / 인버터모터 / [부가] 배터리잔량표시 / 셀프스탠딩 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 그레이/실버 / 무게: 2.9kg / 크기(가로x세로x깊이): 240x1115x170mm</t>
         </is>
       </c>
-      <c r="C1380" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1380" t="n">
+        <v>0</v>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
@@ -30804,10 +30738,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 35분(최대) / 분리형(1개) / 리튬이온 / 2050mAh / 21.9V / [청소] 싸이클론흡입 / LED라이트 / [부가] 배터리잔량표시 / 헤파필터 / 색상: 화이트 / 무게: 1.3kg / 크기(가로x세로): 220x1140mm</t>
         </is>
       </c>
-      <c r="C1381" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1381" t="n">
+        <v>0</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
@@ -30826,10 +30758,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 200W / 소비전력: 550W / 2020년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 물걸레: 일반 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 21.9V / [청소] 싸이클론흡입 / 인버터모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 프리볼트 / 워셔블헤파필터 / 5단계여과 / 색상: 티탄+실버 / 크기(가로x세로x깊이): 250x1136x215mm</t>
         </is>
       </c>
-      <c r="C1382" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1382" t="n">
+        <v>0</v>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
@@ -30848,10 +30778,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 2020년형 / [구성] 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 35분(최대) / 충전시간: 5시간 / 리튬이온 / 2000mAh / 싸이클론흡입 / LED라이트 / BLDC모터 / 먼지통: 0.6L / [부가] 헤파필터 / 5단계여과 / 색상: 그레이</t>
         </is>
       </c>
-      <c r="C1383" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1383" t="n">
+        <v>0</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
@@ -30870,10 +30798,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 8000Pa / 소비전력: 120W / [구성] 스탠드거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 충전시간: 4시간 / 분리형(1개) / 리튬이온 / 2200mAh / 22.2V / [청소] 싸이클론흡입 / LED라이트 / [부가] 프리볼트 / 워셔블먼지필터 / 색상: 블랙</t>
         </is>
       </c>
-      <c r="C1384" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1384" t="n">
+        <v>0</v>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
@@ -30892,10 +30818,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 21000Pa / 소비전력: 300W / 2020년형 / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 분리형(1개) / 리튬이온 / 2400mAh / 29.6V / [청소] 싸이클론흡입 / LED라이트 / 인버터모터 / [부가] 프리볼트 / 헤파필터 / 4단계여과 / 무게: 2.9kg / 크기(가로x세로x깊이): 240x1120x230mm</t>
         </is>
       </c>
-      <c r="C1385" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1385" t="n">
+        <v>0</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
@@ -30914,10 +30838,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 160AW / 흡입력: 22000Pa / 소비전력: 450W / 2020년형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 침구 / 펫 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 1시간5분(최대) / 충전시간: 4시간30분 / 리튬이온 / 2500mAh / 28.8V / [청소] 싸이클론흡입 / BLDC모터 / 먼지통: 0.7L / [부가] 배터리잔량표시 / 셀프스탠딩 / 프리볼트 / 워셔블헤파필터 / 6단계여과 / 무게: 2.5kg / 크기(가로x세로x깊이): 250x1096x198mm</t>
         </is>
       </c>
-      <c r="C1386" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1386" t="n">
+        <v>0</v>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
@@ -30936,10 +30858,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 11000Pa / 소비전력: 150W / 2020년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 틈새 / 연장관 / [배터리] 사용시간: 50분(최대) / 리튬이온 / 2200mAh / 22.2V / [청소] 싸이클론흡입 / LED라이트 / [부가] 프리볼트 / 헤파필터 / 3단계여과 / 색상: 그레이/실버 / 크기(가로x세로x깊이): 250x1090x160mm</t>
         </is>
       </c>
-      <c r="C1387" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1387" t="n">
+        <v>0</v>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
@@ -30958,10 +30878,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 42W / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 틈새 / 연장관 / [배터리] 니켈카드뮴 / 6.5V / [부가] 먼지필터 / 무게: 1.89kg / 크기(가로x세로x깊이): 220x420x220mm</t>
         </is>
       </c>
-      <c r="C1388" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1388" t="n">
+        <v>0</v>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
@@ -30980,10 +30898,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 2019년형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 패브릭 / 연장관 / [배터리] 사용시간: 48분(최대) / 충전시간: 4시간 / 내장형 / 리튬이온 / 18V / [청소] 싸이클론흡입 / 먼지통: 0.42L / [부가] 배터리잔량표시 / 셀프스탠딩 / 먼지필터 / 4단계여과 / 색상: 사틴화이트 / 무게: 3.6kg</t>
         </is>
       </c>
-      <c r="C1389" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1389" t="n">
+        <v>0</v>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
@@ -31002,10 +30918,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 12000Pa / 소비전력: 150W / 2019년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 35분(최대) / 충전시간: 4~5시간 / 리튬이온 / 2200mAh / 22.2V / 싸이클론흡입 / LED라이트 / DC모터 / 먼지통: 0.55L / [부가] 먼지필터 / 4단계여과 / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
         </is>
       </c>
-      <c r="C1390" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1390" t="n">
+        <v>0</v>
       </c>
       <c r="D1390" t="inlineStr">
         <is>
@@ -31024,10 +30938,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 140W / 소비전력: 450W / [구성] 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간30분 / 분리형(1개) / 리튬이온 / 싸이클론흡입 / 인버터모터 / [부가] 워셔블헤파필터 / 5단계여과 / 색상: 보헤미안레드 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
         </is>
       </c>
-      <c r="C1391" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1391" t="n">
+        <v>0</v>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
@@ -31046,10 +30958,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 150W / 소비전력: 450W / 2018년형 / [배터리] 사용시간: 40분(최대) / 충전시간: 4시간30분 / 리튬이온 / 32.4V / 싸이클론흡입 / 인버터모터 / [부가] 헤파필터 / 5단계여과 / 색상: 에어본블랙 / 무게: 2.95kg / 플렉스핸들 / 브러쉬: 듀얼액션, 소프트액션, 솔형, 틈새, 침구 / 크기(가로x세로x깊이): 252x1110x315mm</t>
         </is>
       </c>
-      <c r="C1392" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1392" t="n">
+        <v>0</v>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
@@ -31068,10 +30978,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 140W / 소비전력: 450W / 2018년형 / [구성] 브러쉬: 바닥 / 침구 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간30분 / 분리형(1개) / 리튬이온 / 싸이클론흡입 / 인버터모터 / [부가] 워셔블헤파필터 / 5단계여과 / 색상: 판타지실버 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
         </is>
       </c>
-      <c r="C1393" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1393" t="n">
+        <v>0</v>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
@@ -31090,10 +30998,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 침구 / 틈새 / 패브릭 / 연장관 / [배터리] 사용시간: 42분(최대) / 충전시간: 4시간 / 내장형 / 리튬이온 / 18V / [청소] LED라이트 / 먼지통: 0.42L / [부가] 배터리잔량표시 / 셀프스탠딩 / 먼지필터 / 4단계여과 / 색상: 소프트핑크 / 무게: 3.28kg / 크기(가로x세로x깊이): 303x690x162mm</t>
         </is>
       </c>
-      <c r="C1394" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1394" t="n">
+        <v>0</v>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
@@ -31112,10 +31018,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 140W / 소비전력: 450W / [구성] 브러쉬: 바닥 / 물걸레: 별매 / 침구 / 솔형 / 틈새 / 카펫 / 연장관 / 각도조절툴 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 싸이클론흡입 / 인버터모터 / [부가] 워셔블헤파필터 / 5단계여과 / 색상: 블랙 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
         </is>
       </c>
-      <c r="C1395" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1395" t="n">
+        <v>0</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
@@ -31134,10 +31038,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 140W / 소비전력: 450W / [구성] 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간30분 / 분리형(2개) / 리튬이온 / 싸이클론흡입 / 인버터모터 / [부가] 워셔블헤파필터 / 5단계여과 / 색상: 블랙 / 무게: 2.7kg / 크기(가로x세로x깊이): 260x1120x270mm</t>
         </is>
       </c>
-      <c r="C1396" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1396" t="n">
+        <v>0</v>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
@@ -31156,10 +31058,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 90W / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / [배터리] 사용시간: 40분(강), 70분(약)(최대) / 충전시간: 4시간30분 / 분리형(2개) / 리튬이온 / [청소] LED라이트 / 인버터모터 / [부가] 배터리잔량표시 / 먼지필터 / 색상: 샤이니레드 / 무게: 2.8kg / 크기(가로x세로x깊이): 190x1105x270mm</t>
         </is>
       </c>
-      <c r="C1397" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1397" t="n">
+        <v>0</v>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
@@ -31178,10 +31078,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 60W / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / [배터리] 사용시간: 18분(최대) / 충전시간: 12시간 / 니켈수소 / [청소] 싸이클론흡입 / [부가] 셀프스탠딩 / 먼지필터 / 색상: 블랙 / 무게: 2.9kg / 크기(가로x세로x깊이): 261x1100x193mm</t>
         </is>
       </c>
-      <c r="C1398" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1398" t="n">
+        <v>0</v>
       </c>
       <c r="D1398" t="inlineStr">
         <is>
@@ -31200,10 +31098,8 @@
           <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 62W / [배터리] 사용시간: 10분(최대) / 충전시간: 8시간 / 4.8V / [부가] 먼지필터 / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로x깊이): 425x210x265mm</t>
         </is>
       </c>
-      <c r="C1399" t="inlineStr">
-        <is>
-          <t>55890</t>
-        </is>
+      <c r="C1399" t="n">
+        <v>0</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -31620,7 +31516,7 @@
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>41790</t>
+          <t>41740</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr">
@@ -32500,7 +32396,7 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>73260</t>
+          <t>73240</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
@@ -32786,7 +32682,7 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>14780</t>
+          <t>14770</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr">
@@ -33160,7 +33056,7 @@
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>169870</t>
+          <t>177590</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr">
@@ -33182,7 +33078,7 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>36290</t>
+          <t>36270</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr">
@@ -33336,7 +33232,7 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>163540</t>
+          <t>151120</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr">
@@ -33622,7 +33518,7 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>52510</t>
+          <t>52500</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr">
@@ -34150,7 +34046,7 @@
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>55290</t>
+          <t>55240</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr">
@@ -34304,7 +34200,7 @@
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>247580</t>
+          <t>250610</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr">
@@ -34480,7 +34376,7 @@
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>65500</t>
+          <t>65490</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr">
@@ -34568,7 +34464,7 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>27840</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr">
@@ -35998,7 +35894,7 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>22040</t>
+          <t>22020</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr">
@@ -36350,7 +36246,7 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>193110</t>
+          <t>192870</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr">
@@ -36548,7 +36444,7 @@
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>279640</t>
+          <t>279630</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr">
@@ -37230,7 +37126,7 @@
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>144000</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr">
@@ -37340,7 +37236,7 @@
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>210670</t>
+          <t>206100</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr">
@@ -37890,7 +37786,7 @@
       </c>
       <c r="C1703" t="inlineStr">
         <is>
-          <t>25520</t>
+          <t>25510</t>
         </is>
       </c>
       <c r="D1703" t="inlineStr">
@@ -38000,7 +37896,7 @@
       </c>
       <c r="C1708" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>168260</t>
         </is>
       </c>
       <c r="D1708" t="inlineStr">
@@ -38364,12 +38260,12 @@
     <row r="1725">
       <c r="A1725" t="inlineStr">
         <is>
-          <t>미니센 무선 소형 청소기 MNC-100 노즐 세트</t>
+          <t>미니센 무선 소형 청소기 MNC-100 먼지통</t>
         </is>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>차량용청소기 / 전용브러쉬</t>
+          <t>차량용청소기 / 먼지통</t>
         </is>
       </c>
       <c r="C1725" t="inlineStr">
@@ -38386,12 +38282,12 @@
     <row r="1726">
       <c r="A1726" t="inlineStr">
         <is>
-          <t>미니센 무선 소형 청소기 MNC-100 먼지통</t>
+          <t>미니센 무선 소형 청소기 MNC-100 노즐 세트</t>
         </is>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>차량용청소기 / 먼지통</t>
+          <t>차량용청소기 / 전용브러쉬</t>
         </is>
       </c>
       <c r="C1726" t="inlineStr">
@@ -40200,7 +40096,7 @@
       </c>
       <c r="C1808" t="inlineStr">
         <is>
-          <t>139750</t>
+          <t>147870</t>
         </is>
       </c>
       <c r="D1808" t="inlineStr">
@@ -40948,7 +40844,7 @@
       </c>
       <c r="C1842" t="inlineStr">
         <is>
-          <t>150450</t>
+          <t>149590</t>
         </is>
       </c>
       <c r="D1842" t="inlineStr">
@@ -41074,10 +40970,8 @@
         </is>
       </c>
       <c r="B1848" t="inlineStr"/>
-      <c r="C1848" t="inlineStr">
-        <is>
-          <t>159000</t>
-        </is>
+      <c r="C1848" t="n">
+        <v>0</v>
       </c>
       <c r="D1848" t="inlineStr">
         <is>
@@ -41400,10 +41294,8 @@
         </is>
       </c>
       <c r="B1863" t="inlineStr"/>
-      <c r="C1863" t="inlineStr">
-        <is>
-          <t>3500</t>
-        </is>
+      <c r="C1863" t="n">
+        <v>0</v>
       </c>
       <c r="D1863" t="inlineStr">
         <is>
@@ -41600,7 +41492,7 @@
       </c>
       <c r="C1872" t="inlineStr">
         <is>
-          <t>139750</t>
+          <t>147870</t>
         </is>
       </c>
       <c r="D1872" t="inlineStr">
@@ -42348,7 +42240,7 @@
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t>150450</t>
+          <t>149590</t>
         </is>
       </c>
       <c r="D1906" t="inlineStr">
@@ -42474,10 +42366,8 @@
         </is>
       </c>
       <c r="B1912" t="inlineStr"/>
-      <c r="C1912" t="inlineStr">
-        <is>
-          <t>159000</t>
-        </is>
+      <c r="C1912" t="n">
+        <v>0</v>
       </c>
       <c r="D1912" t="inlineStr">
         <is>
@@ -42800,10 +42690,8 @@
         </is>
       </c>
       <c r="B1927" t="inlineStr"/>
-      <c r="C1927" t="inlineStr">
-        <is>
-          <t>3500</t>
-        </is>
+      <c r="C1927" t="n">
+        <v>0</v>
       </c>
       <c r="D1927" t="inlineStr">
         <is>
@@ -43000,7 +42888,7 @@
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>139750</t>
+          <t>147870</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr">
@@ -43748,7 +43636,7 @@
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>150450</t>
+          <t>149590</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr">
@@ -43874,10 +43762,8 @@
         </is>
       </c>
       <c r="B1976" t="inlineStr"/>
-      <c r="C1976" t="inlineStr">
-        <is>
-          <t>159000</t>
-        </is>
+      <c r="C1976" t="n">
+        <v>0</v>
       </c>
       <c r="D1976" t="inlineStr">
         <is>
@@ -44200,10 +44086,8 @@
         </is>
       </c>
       <c r="B1991" t="inlineStr"/>
-      <c r="C1991" t="inlineStr">
-        <is>
-          <t>3500</t>
-        </is>
+      <c r="C1991" t="n">
+        <v>0</v>
       </c>
       <c r="D1991" t="inlineStr">
         <is>
@@ -44400,7 +44284,7 @@
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>139750</t>
+          <t>147870</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr">
@@ -45148,7 +45032,7 @@
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>150450</t>
+          <t>149590</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr">
@@ -45274,10 +45158,8 @@
         </is>
       </c>
       <c r="B2040" t="inlineStr"/>
-      <c r="C2040" t="inlineStr">
-        <is>
-          <t>159000</t>
-        </is>
+      <c r="C2040" t="n">
+        <v>0</v>
       </c>
       <c r="D2040" t="inlineStr">
         <is>
@@ -45600,10 +45482,8 @@
         </is>
       </c>
       <c r="B2055" t="inlineStr"/>
-      <c r="C2055" t="inlineStr">
-        <is>
-          <t>3500</t>
-        </is>
+      <c r="C2055" t="n">
+        <v>0</v>
       </c>
       <c r="D2055" t="inlineStr">
         <is>
@@ -45800,7 +45680,7 @@
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>139750</t>
+          <t>147870</t>
         </is>
       </c>
       <c r="D2064" t="inlineStr">
@@ -46548,7 +46428,7 @@
       </c>
       <c r="C2098" t="inlineStr">
         <is>
-          <t>150450</t>
+          <t>149590</t>
         </is>
       </c>
       <c r="D2098" t="inlineStr">
@@ -46674,10 +46554,8 @@
         </is>
       </c>
       <c r="B2104" t="inlineStr"/>
-      <c r="C2104" t="inlineStr">
-        <is>
-          <t>159000</t>
-        </is>
+      <c r="C2104" t="n">
+        <v>0</v>
       </c>
       <c r="D2104" t="inlineStr">
         <is>
@@ -47000,10 +46878,8 @@
         </is>
       </c>
       <c r="B2119" t="inlineStr"/>
-      <c r="C2119" t="inlineStr">
-        <is>
-          <t>3500</t>
-        </is>
+      <c r="C2119" t="n">
+        <v>0</v>
       </c>
       <c r="D2119" t="inlineStr">
         <is>
